--- a/Main/Main/modelo.xlsx
+++ b/Main/Main/modelo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i.peres\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i.peres\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DFEB42-1224-41D7-858E-2DFD4955AC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACB0B41-AAEB-4EB5-9457-BC16305EEC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6759B5E2-5784-4CCD-A2A3-043F6CC4644C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="1" xr2:uid="{6759B5E2-5784-4CCD-A2A3-043F6CC4644C}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório" sheetId="1" r:id="rId1"/>
@@ -19,28 +19,17 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Relatório!$A$1:$O$21</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>PART NUMBER SKF</t>
   </si>
@@ -65,6 +54,51 @@
   <si>
     <t>DATA / HORA</t>
   </si>
+  <si>
+    <t>Relatório de processo</t>
+  </si>
+  <si>
+    <t>Data exportação</t>
+  </si>
+  <si>
+    <t>Operador</t>
+  </si>
+  <si>
+    <t>Matéria Prima</t>
+  </si>
+  <si>
+    <t>Matéria Prima:</t>
+  </si>
+  <si>
+    <t>Operador 01</t>
+  </si>
+  <si>
+    <t>Descrição do material</t>
+  </si>
+  <si>
+    <t>Nome Operador</t>
+  </si>
+  <si>
+    <t>Descrição Produto</t>
+  </si>
+  <si>
+    <t>Tempo execução</t>
+  </si>
+  <si>
+    <t>Contagem total de itens</t>
+  </si>
+  <si>
+    <t>Peso total do processo</t>
+  </si>
+  <si>
+    <t>Data Inicio</t>
+  </si>
+  <si>
+    <t>Data Fim</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
 </sst>
 </file>
 
@@ -73,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -133,8 +167,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +198,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF292E54"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -289,13 +346,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -328,6 +475,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="9" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,7 +587,63 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,6 +652,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF292E54"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -528,6 +740,290 @@
             </a14:hiddenLine>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>770965</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>108137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523315</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C48FE2-6CED-DAC1-C7B8-64FF2E1A8594}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="770965" y="108137"/>
+          <a:ext cx="996203" cy="855569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Conector reto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D408788-0E0E-5EFE-8D95-080349CBB5F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="942975"/>
+          <a:ext cx="2200275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2257425" cy="112160"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CaixaDeTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{903923FC-BA03-4A1F-AF3D-BBFCA1551809}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8572500" y="990600"/>
+          <a:ext cx="2257425" cy="112160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Assinatura</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> responsável</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6544235" cy="515472"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="CaixaDeTexto 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53E0FB45-C3E6-6D66-2138-3FDAC56D4428}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11508441" y="78440"/>
+          <a:ext cx="6544235" cy="515472"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" b="1"/>
+            <a:t>Projetado</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" b="1" baseline="0"/>
+            <a:t> e desenvolvido por:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219587</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>431652</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagem 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B052D9E9-23C5-FF19-6AB9-AD5C70A7A337}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12382499" y="694765"/>
+          <a:ext cx="4735559" cy="835063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1233,23 +1729,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -1271,21 +1767,21 @@
       <c r="AH1" s="1"/>
     </row>
     <row r="2" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1307,21 +1803,21 @@
       <c r="AH2" s="1"/>
     </row>
     <row r="3" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1343,21 +1839,21 @@
       <c r="AH3" s="1"/>
     </row>
     <row r="4" spans="1:34" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="36"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="38"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1379,27 +1875,27 @@
       <c r="AH4" s="1"/>
     </row>
     <row r="5" spans="1:34" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="26" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="47" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="49"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="51"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -1421,27 +1917,27 @@
       <c r="AH5" s="1"/>
     </row>
     <row r="6" spans="1:34" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="44" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="44" t="s">
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="46"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1463,27 +1959,27 @@
       <c r="AH6" s="1"/>
     </row>
     <row r="7" spans="1:34" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="37" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="37" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="39"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="41"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -1505,27 +2001,27 @@
       <c r="AH7" s="1"/>
     </row>
     <row r="8" spans="1:34" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="23" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="40" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="42"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="44"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1547,21 +2043,21 @@
       <c r="AH8" s="1"/>
     </row>
     <row r="9" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="18"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="5"/>
@@ -1583,21 +2079,21 @@
       <c r="AH9" s="1"/>
     </row>
     <row r="10" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="19"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="21"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="5"/>
@@ -1619,21 +2115,21 @@
       <c r="AH10" s="1"/>
     </row>
     <row r="11" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="19"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="21"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="5"/>
@@ -1655,21 +2151,21 @@
       <c r="AH11" s="1"/>
     </row>
     <row r="12" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="19"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="21"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="5"/>
@@ -1691,21 +2187,21 @@
       <c r="AH12" s="1"/>
     </row>
     <row r="13" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="19"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="21"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="5"/>
@@ -1727,21 +2223,21 @@
       <c r="AH13" s="1"/>
     </row>
     <row r="14" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="19"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="21"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="5"/>
@@ -1763,21 +2259,21 @@
       <c r="AH14" s="1"/>
     </row>
     <row r="15" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="19"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="21"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="5"/>
@@ -1799,21 +2295,21 @@
       <c r="AH15" s="1"/>
     </row>
     <row r="16" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="19"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="21"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="5"/>
@@ -1835,21 +2331,21 @@
       <c r="AH16" s="1"/>
     </row>
     <row r="17" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="19"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="21"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="5"/>
@@ -1871,21 +2367,21 @@
       <c r="AH17" s="1"/>
     </row>
     <row r="18" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="19"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="21"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="5"/>
@@ -1907,21 +2403,21 @@
       <c r="AH18" s="1"/>
     </row>
     <row r="19" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="19"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="21"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="5"/>
@@ -1943,21 +2439,21 @@
       <c r="AH19" s="1"/>
     </row>
     <row r="20" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="19"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="21"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="5"/>
@@ -1979,21 +2475,21 @@
       <c r="AH20" s="1"/>
     </row>
     <row r="21" spans="1:34" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="22"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="24"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="5"/>
@@ -4194,7 +4690,7 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="7.874015748031496E-2" bottom="7.874015748031496E-2" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="23" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="15" max="1048575" man="1"/>
@@ -4205,18 +4701,153 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1C83AE-FDC2-4B8F-8CE3-9067FF38E749}">
-  <dimension ref="A1:AP1"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AP1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="42" width="9.140625" style="50"/>
+    <col min="1" max="1" width="18.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="19" width="9.140625" style="52"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="56"/>
+      <c r="I1" s="52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="57">
+        <v>45209</v>
+      </c>
+      <c r="H3" s="57"/>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="70"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="65"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+    </row>
+    <row r="8" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="F5:H7"/>
+    <mergeCell ref="A1:B7"/>
+    <mergeCell ref="I1:S1048576"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:E7"/>
+    <mergeCell ref="C1:E3"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="G3:H4"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4230,6 +4861,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c71f299d-61df-4ef7-abf1-9fbd4ad59504">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="50c9d8df-c338-426b-b4a4-fac303072325" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FEA0655D54C1D543A33824F64EBEACB7" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="757f678880176b38ef5c27711a5e0e6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c71f299d-61df-4ef7-abf1-9fbd4ad59504" xmlns:ns3="27ad76c2-a786-4371-9940-3823bf9cf127" xmlns:ns4="50c9d8df-c338-426b-b4a4-fac303072325" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d9454706c19a4b1745b9733898b7dd59" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="c71f299d-61df-4ef7-abf1-9fbd4ad59504"/>
@@ -4477,17 +5119,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c71f299d-61df-4ef7-abf1-9fbd4ad59504">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="50c9d8df-c338-426b-b4a4-fac303072325" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{073E3BFD-1386-435F-90F1-944A1DEA0091}">
   <ds:schemaRefs>
@@ -4497,6 +5128,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6EDA5D2-4657-4858-A4D4-536167E5794A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="50c9d8df-c338-426b-b4a4-fac303072325"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="27ad76c2-a786-4371-9940-3823bf9cf127"/>
+    <ds:schemaRef ds:uri="c71f299d-61df-4ef7-abf1-9fbd4ad59504"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ABF1BC5-2436-416B-9A76-5CEC114F4DC2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4514,22 +5163,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6EDA5D2-4657-4858-A4D4-536167E5794A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="50c9d8df-c338-426b-b4a4-fac303072325"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="27ad76c2-a786-4371-9940-3823bf9cf127"/>
-    <ds:schemaRef ds:uri="c71f299d-61df-4ef7-abf1-9fbd4ad59504"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Main/Main/modelo.xlsx
+++ b/Main/Main/modelo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i.peres\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos Internos\Braspor\Main\Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535516F0-082E-4098-9ED2-3A5B70BE56A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B70EAD7-A6A2-46FD-94CE-67D8C68EE504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6759B5E2-5784-4CCD-A2A3-043F6CC4644C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6759B5E2-5784-4CCD-A2A3-043F6CC4644C}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Relatório de processo</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Operador</t>
-  </si>
-  <si>
-    <t>Matéria Prima</t>
   </si>
   <si>
     <t>Matéria Prima:</t>
@@ -49,9 +46,6 @@
   </si>
   <si>
     <t>Nome Operador</t>
-  </si>
-  <si>
-    <t>Descrição Produto</t>
   </si>
   <si>
     <t>Tempo execução</t>
@@ -70,6 +64,9 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Observação do Processo</t>
   </si>
 </sst>
 </file>
@@ -298,7 +295,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -577,7 +574,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>219587</xdr:colOff>
+      <xdr:colOff>219588</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>431652</xdr:rowOff>
     </xdr:to>
@@ -921,19 +918,19 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
     <col min="9" max="19" width="9.140625" style="12"/>
   </cols>
   <sheetData>
@@ -953,7 +950,7 @@
       </c>
       <c r="H1" s="20"/>
       <c r="I1" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -973,7 +970,7 @@
       <c r="D3" s="12"/>
       <c r="E3" s="17"/>
       <c r="F3" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="21">
         <v>45209</v>
@@ -984,10 +981,10 @@
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="19"/>
@@ -1026,29 +1023,27 @@
     </row>
     <row r="8" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="H8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1069,6 +1064,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c71f299d-61df-4ef7-abf1-9fbd4ad59504">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="50c9d8df-c338-426b-b4a4-fac303072325" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FEA0655D54C1D543A33824F64EBEACB7" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="757f678880176b38ef5c27711a5e0e6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c71f299d-61df-4ef7-abf1-9fbd4ad59504" xmlns:ns3="27ad76c2-a786-4371-9940-3823bf9cf127" xmlns:ns4="50c9d8df-c338-426b-b4a4-fac303072325" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d9454706c19a4b1745b9733898b7dd59" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="c71f299d-61df-4ef7-abf1-9fbd4ad59504"/>
@@ -1316,42 +1331,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c71f299d-61df-4ef7-abf1-9fbd4ad59504">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="50c9d8df-c338-426b-b4a4-fac303072325" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ABF1BC5-2436-416B-9A76-5CEC114F4DC2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{073E3BFD-1386-435F-90F1-944A1DEA0091}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c71f299d-61df-4ef7-abf1-9fbd4ad59504"/>
-    <ds:schemaRef ds:uri="27ad76c2-a786-4371-9940-3823bf9cf127"/>
-    <ds:schemaRef ds:uri="50c9d8df-c338-426b-b4a4-fac303072325"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1375,9 +1358,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{073E3BFD-1386-435F-90F1-944A1DEA0091}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ABF1BC5-2436-416B-9A76-5CEC114F4DC2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c71f299d-61df-4ef7-abf1-9fbd4ad59504"/>
+    <ds:schemaRef ds:uri="27ad76c2-a786-4371-9940-3823bf9cf127"/>
+    <ds:schemaRef ds:uri="50c9d8df-c338-426b-b4a4-fac303072325"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>